--- a/data/trans_orig/P36B02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_2023-Estudios-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
+          <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>17,83%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>74,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>73,37%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1263,19 +1263,19 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>122</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>95835</v>
+        <v>95836</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,47%</t>
         </is>
       </c>
     </row>
@@ -1405,19 +1405,19 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>67,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>72,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>2128</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1623647</v>
+        <v>1623648</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>76,99%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>74,11%</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>74,86%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>81,0%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>71,98%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>76,9%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -2256,7 +2256,7 @@
         <v>2434</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2372156</v>
+        <v>2372155</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,11%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>72,31%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,19 +2286,19 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>71,57%</t>
+          <t>71,64%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>76,01%</t>
+          <t>75,65%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
         <v>6399</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5154817</v>
+        <v>5154816</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>73,61%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
